--- a/dmsan/newgen/scores/other_indicator_scores.xlsx
+++ b/dmsan/newgen/scores/other_indicator_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlohm\Dropbox\Lohman-Guest_Shared\12_PhD_Paper3_Sanitation_Decision-Making\Python Code\GitHubDesktop\DMsan\dmsan\newgen\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CFFD24-4362-4B1A-9695-5A2D03B1AC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200E301D-0D19-4CA6-8EB0-29EEA5CCF864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="20" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10380" firstSheet="9" activeTab="11" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="25" r:id="rId1"/>
@@ -2062,8 +2062,8 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2124,10 +2124,10 @@
         <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -2150,10 +2150,10 @@
         <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -3132,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E922356-1DFC-4726-8591-7B465EEC758C}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
